--- a/Marketing/uva.roomme.xlsx
+++ b/Marketing/uva.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/uva.roomme.xlsx
+++ b/Marketing/uva.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">

--- a/Marketing/uva.roomme.xlsx
+++ b/Marketing/uva.roomme.xlsx
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">

--- a/Marketing/uva.roomme.xlsx
+++ b/Marketing/uva.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B325"/>
+  <dimension ref="A1:B324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dharshini.arunprakash</t>
+          <t>jordannnwood</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>maranomad</t>
+          <t>chriscouser23</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>charley.thomas3</t>
+          <t>makinley.mastal</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ayo.a16</t>
+          <t>ekeniana_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>calebbpark</t>
+          <t>arya05k</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lizagallardo16</t>
+          <t>cam_e_w</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>simi.chak</t>
+          <t>alex.flamm</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>yordanos0530</t>
+          <t>eliseha07</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sajin_707</t>
+          <t>artemis_ashbird</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tamiraaenkhbayar</t>
+          <t>lulya_445</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jcroly7</t>
+          <t>hlbui</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bibeau.devan</t>
+          <t>jcroke77</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>brookemozarskyy</t>
+          <t>kassandra.sidney</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>austin.ennor73</t>
+          <t>mildchorestoral</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>kassandra.sidney</t>
+          <t>rachelw_2</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>yasameenb</t>
+          <t>julianne_lynns</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vi.x.ny</t>
+          <t>mvchelle._.zhvang</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>albanyviet</t>
+          <t>alexandraworms</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cadencleffi_24</t>
+          <t>liddywatson</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>victoriahughes8</t>
+          <t>astrojonyy</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cfskin67</t>
+          <t>sophia.b_23</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hollismuir</t>
+          <t>nazrinrakter</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>esotericket</t>
+          <t>wissal.4</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>kt.glaz</t>
+          <t>lucia_patino_ip</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>isa_bella_mm</t>
+          <t>erol.hg</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hi.chiax</t>
+          <t>_ava.gh</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hannahl.kim</t>
+          <t>thereserussellkent</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>carmen_sewell1</t>
+          <t>anitahoo_sh</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ally.berger</t>
+          <t>lindarwhite44</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>anitahoo_sh</t>
+          <t>bree.tatel</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>allison_0831</t>
+          <t>nicky.vy</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reeseckennedy</t>
+          <t>nityavarigala</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>kaylaanderson7108</t>
+          <t>deeya.patell</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>kayley.kish</t>
+          <t>bran_nesbit</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jackfcoop</t>
+          <t>carlinlacques</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_jadenwright21_</t>
+          <t>og_abby_michelle</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>andreaboicu</t>
+          <t>saramilio5</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>aditib.04</t>
+          <t>maddieclayton7</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lilyksimpson</t>
+          <t>zach_forino</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jpgofhotdog</t>
+          <t>pratha.ravani</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>anna.keefer13</t>
+          <t>adie_miller05</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>tummy.williams</t>
+          <t>jbtatel</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ellakotok</t>
+          <t>trinitygilbert_</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>elijah._.smith1229</t>
+          <t>nickj1890</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>akshararreddy</t>
+          <t>z0eamber</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>turnerlandrum</t>
+          <t>julie.v.har</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>manmayii</t>
+          <t>ella.richaardson</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>milah.z</t>
+          <t>apollobeachbabe</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>swaz1127</t>
+          <t>iiiisaabellaaa</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cameronmottley</t>
+          <t>willll_bakerr</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k1nglyss</t>
+          <t>ethan.weisenberg</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>afnan.akhand</t>
+          <t>neha.amarnath</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>heidi_williams1234</t>
+          <t>jstuartharris</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>j_curran101</t>
+          <t>_miahe</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nickj1890</t>
+          <t>xx.sesen</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>wissal.4</t>
+          <t>its.mariam15</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mitanshk0608</t>
+          <t>_lina_a._</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_gracekirk</t>
+          <t>jack.gilligann</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_lina_a._</t>
+          <t>katieefrr</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>stephen.ng04</t>
+          <t>xiaoyi.x.a</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,1317 +1048,1317 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>taleel_real</t>
+          <t>via.8.mm</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>aksharasomu</t>
+          <t>andrey_smores</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>zebenayy.exe</t>
+          <t>brooke_richardson._</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>xiangyu8225</t>
+          <t>kartikalanka</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>julia.bromfman</t>
+          <t>cheyennewoozy</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cara__amy</t>
+          <t>notjup1ter</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>norawood_</t>
+          <t>emmarellsworth</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>whomanhuh</t>
+          <t>norawood_</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cam_e_w</t>
+          <t>peyton.marcy</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>willll_bakerr</t>
+          <t>natalie.dike</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>syd.camryn</t>
+          <t>sa.yuri2825</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nazrinrakter</t>
+          <t>hillary_estrada25</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>grace.blake23</t>
+          <t>bsilver1213</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ethanwu04</t>
+          <t>chloe.schleif</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>erin.monnig</t>
+          <t>thisissamsacct</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>micah_andrewss</t>
+          <t>henrytoth23</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>angadbr</t>
+          <t>logan.gilbert999</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>natalieholt05</t>
+          <t>3thann_c</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>nick.steinhilber</t>
+          <t>cateyoder7</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>chriistinenguyen</t>
+          <t>not_laxmi</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>alexandraworms</t>
+          <t>bohnalicia</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jessicaedurgin</t>
+          <t>tamiraaenkhbayar</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>londonjacksonn</t>
+          <t>jackawhackadoo</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>zach_bernas</t>
+          <t>mymy.laroll</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>arya05k</t>
+          <t>sree_pamulapati</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sharpoonalex</t>
+          <t>aksharasomu</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>alexandra.flug</t>
+          <t>kt.glaz</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>erol.hg</t>
+          <t>makena.groover</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>juan.zxy</t>
+          <t>soniamistry_</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>miakiim11</t>
+          <t>savannah.overby</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>anikar_12</t>
+          <t>christyyguan</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>_sarah23__</t>
+          <t>amyychenn_</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>amyychenn_</t>
+          <t>nicolechecker</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ciaa.nicole</t>
+          <t>beallroberts</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sophiapuype</t>
+          <t>another_lizard</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>abem.sea</t>
+          <t>_jadey.s</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>lizfflynn3</t>
+          <t>ebx3x6</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>catherine.derosset</t>
+          <t>_ox_j_xo_</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>eliseha07</t>
+          <t>ellerietauber</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>is.this.impotant</t>
+          <t>sgminnig</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>xx.sesen</t>
+          <t>kellyrbristol</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>lahari16</t>
+          <t>anu_devi08</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>kessler__ke</t>
+          <t>ktran1031</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_kristylau_</t>
+          <t>madeofpam</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>francesca.lazzuri</t>
+          <t>nishikhas_</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mason_nicoletti</t>
+          <t>saniyahmanaal</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>tejanamamallama</t>
+          <t>anna.keefer13</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>zach_forino</t>
+          <t>m.alirashid__</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>emma_lellouche</t>
+          <t>loveveraax</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ram.ey_</t>
+          <t>_samanthajulia_</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>_amira_dennis_</t>
+          <t>chriistinenguyen</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>sgminnig</t>
+          <t>brehodgess</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>macattackka44</t>
+          <t>anthropophonics</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>_jadey.s</t>
+          <t>zebenayy.exe</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>hlbui</t>
+          <t>akshararreddy</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sunglass27</t>
+          <t>carlos.oconnor_</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kenzie.stinson183</t>
+          <t>kay.marinus</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>makinley.mastal</t>
+          <t>warm_cozy_asmr</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>devin.satenberg</t>
+          <t>alisonoleson</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>anya.hariharan</t>
+          <t>_michelle_yu_</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>brian.xu.765</t>
+          <t>armaanabbas10</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>clarkstewart05</t>
+          <t>kiyoko.manami</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>henrytoth23</t>
+          <t>jackfallon627</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>freckles538</t>
+          <t>enumieu</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jsing29</t>
+          <t>radityawahjudi</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ry.jmiller</t>
+          <t>yasmine_elha</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>_lillyarmstrong</t>
+          <t>bezwot</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>portiapapagni</t>
+          <t>elizabethzalt</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>thomas.adams32</t>
+          <t>chase.omalley</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sashageisinger</t>
+          <t>lily.avalon</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>chriscouser23</t>
+          <t>whomanhuh</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>khushirshahh</t>
+          <t>ehjenkins24112</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vanessablockk</t>
+          <t>ardentrudeau</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sid_rho</t>
+          <t>abbeyharlow</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sree.parasa</t>
+          <t>thetinytang</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>bezwot</t>
+          <t>lily.a.durden</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>oliviataccone</t>
+          <t>ellabasak</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>hannahhfrakes</t>
+          <t>_ayyoookay_</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>nate.lenard20</t>
+          <t>michaelfraz05</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>iiiisaabellaaa</t>
+          <t>gabriel_syed</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nathnael952</t>
+          <t>_corinnew_</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>isha.shah28</t>
+          <t>tracy.9754</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>katieefrr</t>
+          <t>syd_.dixon</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>mira_thaloor</t>
+          <t>fede_bandoni</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ardentrudeau</t>
+          <t>grace__madden</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>christine_tvpham</t>
+          <t>cx2345</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>nityavarigala</t>
+          <t>hlaudano22</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>shawn_ladhani</t>
+          <t>andreiamf</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>aahna_patel00</t>
+          <t>dharshini.arunprakash</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>leyustun</t>
+          <t>katie.ullmann</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>mdiarrandoye</t>
+          <t>alice_changyiyang</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mariamtgrigorian</t>
+          <t>br.iaan</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>not_laxmi</t>
+          <t>isz.mariaa</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>nicolechecker</t>
+          <t>parker_cullen__</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>shriyaramaka</t>
+          <t>thomas.adams32</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sengtonn</t>
+          <t>j_curran101</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>we4bulls</t>
+          <t>maxbenningfield</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>addie_k321</t>
+          <t>daniel_gberg</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>shalmali.rao</t>
+          <t>asmikansagra</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>saniyahmanaal</t>
+          <t>ssabrina.xox</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>bree.tatel</t>
+          <t>kerrywhitacre</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>rehaan_w_</t>
+          <t>anya.hariharan</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>semonyvshah</t>
+          <t>mariamtgrigorian</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>meghan.lepsis</t>
+          <t>kidist_badi</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>annika.jane19</t>
+          <t>jalanamarieeex</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>anikaloper</t>
+          <t>ava.sheridann</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>dhanyassriram</t>
+          <t>arya.rajeshh</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cmkuryla</t>
+          <t>ram.ey_</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>fatima.afilall</t>
+          <t>mare2326</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>budlongthea</t>
+          <t>aelfred.vaughn</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ashley_smile12</t>
+          <t>eisabelmz</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>natalie.dike</t>
+          <t>snigdhajakka</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>footer.moon</t>
+          <t>andrewj._</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>asmikansagra</t>
+          <t>jadaawaydaaa__</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>michaelfraz05</t>
+          <t>jaysssikka</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>hallie_huff</t>
+          <t>devin.satenberg</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>cateyoder7</t>
+          <t>skhandewale</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>preranasrinivasan</t>
+          <t>_dhruvsarang</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>rhea_sethii</t>
+          <t>ava.petro12</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>tom_hooks53</t>
+          <t>maggie.hughes_1</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>jessiedelucia</t>
+          <t>lkane828</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>m.alirashid__</t>
+          <t>nassiryvonne</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>gianna.devellis</t>
+          <t>kaylaanderson7108</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ashleylev_</t>
+          <t>norawooo</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kaylynluppino</t>
+          <t>collins.kiptoo</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>stella.lmec</t>
+          <t>hankh27</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>itsnotzhang</t>
+          <t>kaylynluppino</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>rina_vnathan</t>
+          <t>freckles538</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jolina.dong</t>
+          <t>charlotte.basss</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>rachelw_2</t>
+          <t>emily.lam05</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>rosh.ni_ahuja</t>
+          <t>tejanamamallama</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>angelinax_27</t>
+          <t>shakeyourbonbon_</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>jumana.zara</t>
+          <t>tori_pierce_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>audrey.humes</t>
+          <t>ra.njana492</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>isabel_chen7</t>
+          <t>skylarmullinss</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>angel_mulu</t>
+          <t>kaylie.singhal</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>guycardwell99</t>
+          <t>melissaa_huang</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>julianne_lynns</t>
+          <t>samanthaphei</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>carolinetoyryla</t>
+          <t>mitanshk0608</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>surajvaddi</t>
+          <t>monetgondaa_</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>lulukayw</t>
+          <t>_emilyjmoore</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>tani_mani</t>
+          <t>michael.yang17</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>jstuartharris</t>
+          <t>fu.hetian</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>uhhniki</t>
+          <t>katemartyny</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>bentzito</t>
+          <t>mzzzipper</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ava.wolsborn</t>
+          <t>patrick_h0</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>brogan_hurt</t>
+          <t>ashleyyferguson1</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>maxtheshepherd02</t>
+          <t>shawn_ladhani</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>allisoncip</t>
+          <t>lucia_fogler</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>br.iaan</t>
+          <t>abbymwalsh</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>itsdavis_o</t>
+          <t>stephen.ng04</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>hillary_estrada25</t>
+          <t>alisabera_</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>phantomarcher</t>
+          <t>d4n1sh14</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>elena_heraldo</t>
+          <t>cameronmottley</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>andreiamf</t>
+          <t>isht19_</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>grace_will05</t>
+          <t>jo_hya</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>vedaakula</t>
+          <t>caliii.nelson</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>m.ballesteros_</t>
+          <t>hannahhfrakes</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>malyeka_ali</t>
+          <t>kimberlyegoavil</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ellie.wormser23</t>
+          <t>bo_johnson_</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>e_huffman11</t>
+          <t>aya.leone</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>liddywatson</t>
+          <t>delinaaogbe</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>nyamasonn</t>
+          <t>graham.wiggins</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>llparker54</t>
+          <t>brookemozarskyy</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jordannnwood</t>
+          <t>cadencleffi_24</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>phs0730</t>
+          <t>anikar_12</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>alshawaffles</t>
+          <t>carolh2004</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>christyyguan</t>
+          <t>prillamangrayson</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>eisabelmz</t>
+          <t>_.melissac._18</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>narrabee</t>
+          <t>praggnyayay</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>zoewoehrmyer</t>
+          <t>finnlyn_</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>genesiscabreramadrigal</t>
+          <t>mayarooneyy</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>hagarr_k</t>
+          <t>carmen_sewell1</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>mildchorestoral</t>
+          <t>annakutelia</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>alexisxtm_</t>
+          <t>susana.columbieperez</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sanika.a.k</t>
+          <t>kessler__ke</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>andrey_smores</t>
+          <t>jamjam_ar</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>brehodgess</t>
+          <t>bentzito</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>pratha.ravani</t>
+          <t>sajani_silla</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jo_hya</t>
+          <t>julia.mckechnie</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>aleefahaaa</t>
+          <t>okbelcy</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>theo_t_moll</t>
+          <t>thomaslucrezio</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>kyliearnottt</t>
+          <t>sushan.gumadavalli</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>bohnalicia</t>
+          <t>cesar_martinez0011</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>brianyingjetng</t>
+          <t>andrewpratt05</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>jennifer_macler</t>
+          <t>_marika_clark_</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>cassienokes22</t>
+          <t>we4bulls</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>amika.kapoor</t>
+          <t>julia.kentt</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>will.c.richardson</t>
+          <t>vanessablockk</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>neha.amarnath</t>
+          <t>leynabidic</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>jaysssikka</t>
+          <t>reema.gaal</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>corysully19</t>
+          <t>magenw21</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>shreeja_tangutur</t>
+          <t>belladimeo</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>vwoodlock</t>
+          <t>lilyywheels</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>anayanath_</t>
+          <t>jolina.dong</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>mvchelle._.zhvang</t>
+          <t>angel_mulu</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>isabellla.le</t>
+          <t>julia.shuttle.worth.it</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>_miatesoriero</t>
+          <t>ssprzz_</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>alisonoleson</t>
+          <t>cami.forsyth</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>marygomboss</t>
+          <t>luci.nguyenn</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>nehapolavarapu</t>
+          <t>chancet_b</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>srishti_vel</t>
+          <t>char.sypark</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>haley__macleod</t>
+          <t>malyeka_ali</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>schepernicholas</t>
+          <t>patrick_schmid02</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ava.petro12</t>
+          <t>_savannahvaughan</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>elenarrrrrrr3</t>
+          <t>aziza.ergasheva_</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>jackiesonnn</t>
+          <t>srithaalluri</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>_.melissac._18</t>
+          <t>ak.gaskin</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rosedaum</t>
+          <t>emmav.hartman</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>laurenopin</t>
+          <t>emilygkiser</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>rubybhatfield</t>
+          <t>haarikanandula</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>josh.22__</t>
+          <t>shaquale_05</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>matthewp757</t>
+          <t>brookecorrinhall</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>aditi.atreya03</t>
+          <t>juliewang_0423</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sree_pamulapati</t>
+          <t>crystalmcenhimer</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>swethaabaskar</t>
+          <t>lrstocks</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>its_zoetime</t>
+          <t>nehapolavarapu</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>adrian._.mo</t>
+          <t>isabellehilinski_</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>aya.leone</t>
+          <t>_danesteele</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ashna_amc7</t>
+          <t>haley__macleod</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>mzzzipper</t>
+          <t>lucyxnguyen</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>gulsanemseitniiazova</t>
+          <t>a.afowler</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>kenningspath</t>
+          <t>huntercooper4444</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>luci.nguyenn</t>
+          <t>avaduha</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_emmakiim</t>
+          <t>abem.sea</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>caliii.nelson</t>
+          <t>itsnotzhang</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>sarahbelkpoulson</t>
+          <t>annamscott</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sophietalreja</t>
+          <t>iliana.vass</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jackawhackadoo</t>
+          <t>kyliearnottt</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>delinaaogbe</t>
+          <t>lolakolawolee</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sophie.c_4</t>
+          <t>syd.camryn</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>zane.abbud</t>
+          <t>steph.ahi</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>iliana.vass</t>
+          <t>sengtonn</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>saba.nasseri</t>
+          <t>ucheezenwa23</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>rachaelarowland</t>
+          <t>meredith.clay_</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>juliekassislong</t>
+          <t>surajvaddi</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cx2345</t>
+          <t>kendramicklee</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>naomi_tesfa</t>
+          <t>srishti_vel</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>julie.v.har</t>
+          <t>ash.meen1</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>alice_changyiyang</t>
+          <t>vi.x.ny</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>another_lizard</t>
+          <t>jessicaedurgin</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>alex.loch11</t>
+          <t>simi.chak</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>arjunr_125</t>
+          <t>_sarah23__</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>gabriel_syed</t>
+          <t>elizatconnolly</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>arferrer_</t>
+          <t>lashgarisharareh</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>lisamac4482</t>
+          <t>_sam__marie</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>trinitygilbert_</t>
+          <t>alexandra.flug</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>gem.morriss</t>
+          <t>ianmayergoyz</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>drishtidaga.13</t>
+          <t>michelle_.sherman</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>leynabidic</t>
+          <t>alli_s__</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>saramilio5</t>
+          <t>jadenklinee</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>jack.gilligann</t>
+          <t>esotericket</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>dianazzy17</t>
+          <t>dyuu.lee</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>wcon76</t>
+          <t>_miatesoriero</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>camlpenn</t>
+          <t>juliekassislong</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>finnbennett._</t>
+          <t>julia.bromfman</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>melissaa_huang</t>
+          <t>dianazzy17</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>mayarooneyy</t>
+          <t>saya.nylin</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ki.xxv</t>
+          <t>lizawebb_</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>audrey.bediako</t>
+          <t>sophie.c_4</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>prillamangrayson</t>
+          <t>cfskin67</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,20 +3668,10 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kay.marinus</t>
+          <t>rosedaum</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>kaylie.singhal</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/uva.roomme.xlsx
+++ b/Marketing/uva.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jordannnwood</t>
+          <t>afnan.akhand</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>chriscouser23</t>
+          <t>foc.natan1</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>makinley.mastal</t>
+          <t>brooke_hughes092</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ekeniana_</t>
+          <t>anikar_12</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>arya05k</t>
+          <t>juanaadiez</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cam_e_w</t>
+          <t>jonah.abraham11</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alex.flamm</t>
+          <t>felicity_fran3</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eliseha07</t>
+          <t>o.ili.ensis</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>artemis_ashbird</t>
+          <t>not_laxmi</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lulya_445</t>
+          <t>logan_h.h</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hlbui</t>
+          <t>grayson.burchard</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jcroke77</t>
+          <t>bo_johnson_</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kassandra.sidney</t>
+          <t>annechov1e</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mildchorestoral</t>
+          <t>josh.22__</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rachelw_2</t>
+          <t>lilyywheels</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>julianne_lynns</t>
+          <t>ashiyana.patelll</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mvchelle._.zhvang</t>
+          <t>nishikhas_</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>alexandraworms</t>
+          <t>sree.parasa</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>liddywatson</t>
+          <t>annalise.pereira</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>astrojonyy</t>
+          <t>nickj1890</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sophia.b_23</t>
+          <t>shawn_ladhani</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nazrinrakter</t>
+          <t>emil_966</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wissal.4</t>
+          <t>itzvictoria.a</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lucia_patino_ip</t>
+          <t>arya05k</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>erol.hg</t>
+          <t>julie.v.har</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>_ava.gh</t>
+          <t>chase.omalley</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>thereserussellkent</t>
+          <t>alice_changyiyang</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>anitahoo_sh</t>
+          <t>char.sypark</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lindarwhite44</t>
+          <t>hevr.gomz</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bree.tatel</t>
+          <t>kyliearnottt</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nicky.vy</t>
+          <t>leynabidic</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nityavarigala</t>
+          <t>stevenburrell17</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>deeya.patell</t>
+          <t>franklinnli</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bran_nesbit</t>
+          <t>camyla165</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>carlinlacques</t>
+          <t>via.8.mm</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>og_abby_michelle</t>
+          <t>sara_dombroski</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>saramilio5</t>
+          <t>ebx3x6</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>maddieclayton7</t>
+          <t>_michelle_yu_</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zach_forino</t>
+          <t>_juliamoore__</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pratha.ravani</t>
+          <t>cx2345</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>adie_miller05</t>
+          <t>mort_doo</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jbtatel</t>
+          <t>camlpenn</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>trinitygilbert_</t>
+          <t>elladuus</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>nickj1890</t>
+          <t>lily.a.durden</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>z0eamber</t>
+          <t>okbelcy</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>julie.v.har</t>
+          <t>carolinetoyryla</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ella.richaardson</t>
+          <t>menomoto_39</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>apollobeachbabe</t>
+          <t>isabel_chen7</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>iiiisaabellaaa</t>
+          <t>_samanthajulia_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>willll_bakerr</t>
+          <t>haarikanandula</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ethan.weisenberg</t>
+          <t>shilohbthompson</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>neha.amarnath</t>
+          <t>syd_.dixon</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jstuartharris</t>
+          <t>wc.collins</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_miahe</t>
+          <t>luciasnajdr</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xx.sesen</t>
+          <t>nicky.vy</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>its.mariam15</t>
+          <t>alshawaffles</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_lina_a._</t>
+          <t>mitanshk0608</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>jack.gilligann</t>
+          <t>aahilpallath</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>katieefrr</t>
+          <t>asifhaquee_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xiaoyi.x.a</t>
+          <t>edwardm_04</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,2631 +1048,2491 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>via.8.mm</t>
+          <t>erol.hg</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>andrey_smores</t>
+          <t>hannahl.kim</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>brooke_richardson._</t>
+          <t>eddie.grose</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>kartikalanka</t>
+          <t>grrishmagan</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cheyennewoozy</t>
+          <t>shriyaramaka</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>notjup1ter</t>
+          <t>emmmadc</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>emmarellsworth</t>
+          <t>carlos.oconnor_</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>norawood_</t>
+          <t>rosedaum</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>peyton.marcy</t>
+          <t>reedcrichton</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>natalie.dike</t>
+          <t>ally.berger</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sa.yuri2825</t>
+          <t>phs0730</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hillary_estrada25</t>
+          <t>lucynewmyer</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bsilver1213</t>
+          <t>hagarr_k</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>chloe.schleif</t>
+          <t>_rachelchapuis</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>thisissamsacct</t>
+          <t>andrewmathiason__</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>henrytoth23</t>
+          <t>shrutathum</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>logan.gilbert999</t>
+          <t>danielk_67</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3thann_c</t>
+          <t>_amorenicole</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cateyoder7</t>
+          <t>allison_0831</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>not_laxmi</t>
+          <t>ebte.aq</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>bohnalicia</t>
+          <t>chloe.schleif</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>tamiraaenkhbayar</t>
+          <t>jennifer_macler</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jackawhackadoo</t>
+          <t>addysendowney</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mymy.laroll</t>
+          <t>ishansrivastava9</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sree_pamulapati</t>
+          <t>indyaa.j</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>aksharasomu</t>
+          <t>nadiamooree</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kt.glaz</t>
+          <t>parker_cullen__</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>makena.groover</t>
+          <t>diya_patel7</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>soniamistry_</t>
+          <t>riley_sucato</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>savannah.overby</t>
+          <t>cassienokes22</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>christyyguan</t>
+          <t>maddierose.m</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>amyychenn_</t>
+          <t>noah.stengeleskin</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>nicolechecker</t>
+          <t>vivi.ilwn37</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>beallroberts</t>
+          <t>anu_devi08</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>another_lizard</t>
+          <t>jebfinney</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>_jadey.s</t>
+          <t>norawood_</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ebx3x6</t>
+          <t>katie.ullmann</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_ox_j_xo_</t>
+          <t>bethel_abebe</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ellerietauber</t>
+          <t>lily.avalon</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sgminnig</t>
+          <t>christine_tvpham</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kellyrbristol</t>
+          <t>ethan.weisenberg</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>anu_devi08</t>
+          <t>kiyoko.manami</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ktran1031</t>
+          <t>gianna.devellis</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>madeofpam</t>
+          <t>samanthaphei</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>nishikhas_</t>
+          <t>nyamasonn</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>saniyahmanaal</t>
+          <t>levihelebo</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>anna.keefer13</t>
+          <t>alisabera_</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>m.alirashid__</t>
+          <t>ellerietauber</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>loveveraax</t>
+          <t>akshararreddy</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>_samanthajulia_</t>
+          <t>elizabethzalt</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>chriistinenguyen</t>
+          <t>kasey.wyatt.chadwick</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>brehodgess</t>
+          <t>lulya_445</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>anthropophonics</t>
+          <t>annalise.padilla</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>zebenayy.exe</t>
+          <t>umar.luqman04</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>akshararreddy</t>
+          <t>mayarooneyy</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>carlos.oconnor_</t>
+          <t>a.peskin4</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kay.marinus</t>
+          <t>surajvaddi</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>warm_cozy_asmr</t>
+          <t>dhanyassriram</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>alisonoleson</t>
+          <t>vibewith.ada</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_michelle_yu_</t>
+          <t>wissal.4</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>armaanabbas10</t>
+          <t>annakutelia</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>kiyoko.manami</t>
+          <t>milah.z</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jackfallon627</t>
+          <t>ssprzz_</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>enumieu</t>
+          <t>nityavarigala</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>radityawahjudi</t>
+          <t>fede_bandoni</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>yasmine_elha</t>
+          <t>footer.moon</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bezwot</t>
+          <t>kathleen__russell</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>elizabethzalt</t>
+          <t>nicolechecker</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>chase.omalley</t>
+          <t>jyyoo23</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lily.avalon</t>
+          <t>malhark05</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>whomanhuh</t>
+          <t>esotericket</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ehjenkins24112</t>
+          <t>andreqc_05</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ardentrudeau</t>
+          <t>jo_hya</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>abbeyharlow</t>
+          <t>angadbr</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>thetinytang</t>
+          <t>harini.thiruvengadam</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>lily.a.durden</t>
+          <t>marybethpitt</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ellabasak</t>
+          <t>jaylalwani_</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_ayyoookay_</t>
+          <t>lucas_ihnat</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>michaelfraz05</t>
+          <t>aarush_dhawann</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>gabriel_syed</t>
+          <t>arjunr_125</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_corinnew_</t>
+          <t>carol_mny</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tracy.9754</t>
+          <t>nassiryvonne</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>syd_.dixon</t>
+          <t>pixie_abbygael.h</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>fede_bandoni</t>
+          <t>matt_wilson114</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>grace__madden</t>
+          <t>rakshitha_thanasekaran</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cx2345</t>
+          <t>dorichard3</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>hlaudano22</t>
+          <t>k1nglyss</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>andreiamf</t>
+          <t>khushirshahh</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dharshini.arunprakash</t>
+          <t>dianazzy17</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>katie.ullmann</t>
+          <t>justin.pendergast</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>alice_changyiyang</t>
+          <t>evin__sc</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>br.iaan</t>
+          <t>ethanwu04</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>isz.mariaa</t>
+          <t>jcroly7</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>parker_cullen__</t>
+          <t>akanksha_tibrewala</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>thomas.adams32</t>
+          <t>bnysor</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>j_curran101</t>
+          <t>_sofiacarmen</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>maxbenningfield</t>
+          <t>evanzhang05</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>daniel_gberg</t>
+          <t>miakiim11</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>asmikansagra</t>
+          <t>madeofpam</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ssabrina.xox</t>
+          <t>cathderee</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>kerrywhitacre</t>
+          <t>matthewp757</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>anya.hariharan</t>
+          <t>kyuriiprrk</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>mariamtgrigorian</t>
+          <t>anushriii_c</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>kidist_badi</t>
+          <t>tejanamamallama</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>jalanamarieeex</t>
+          <t>kassandra.sidney</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ava.sheridann</t>
+          <t>celion__</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>arya.rajeshh</t>
+          <t>ava.wolsborn</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ram.ey_</t>
+          <t>syd.camryn</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>mare2326</t>
+          <t>jsing29</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>aelfred.vaughn</t>
+          <t>asmikansagra</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>eisabelmz</t>
+          <t>iliana.vass</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>snigdhajakka</t>
+          <t>cyprian.motyl11</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>andrewj._</t>
+          <t>catherinegoldstein_</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jadaawaydaaa__</t>
+          <t>emily.lam05</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>jaysssikka</t>
+          <t>iankariuki_</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>devin.satenberg</t>
+          <t>abth050403</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>skhandewale</t>
+          <t>delaneygrae</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>_dhruvsarang</t>
+          <t>parththeparty</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ava.petro12</t>
+          <t>stephen.ng04</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>maggie.hughes_1</t>
+          <t>christyyguan</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lkane828</t>
+          <t>rosh.ni_ahuja</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>nassiryvonne</t>
+          <t>drewkohl_</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kaylaanderson7108</t>
+          <t>magenw21</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>norawooo</t>
+          <t>maddieclayton7</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>collins.kiptoo</t>
+          <t>reesecharron</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>hankh27</t>
+          <t>clara.franklin</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>kaylynluppino</t>
+          <t>anyll0w</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>freckles538</t>
+          <t>vemulapallisurya</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>charlotte.basss</t>
+          <t>zoeedelblum</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>emily.lam05</t>
+          <t>sunglass27</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tejanamamallama</t>
+          <t>praggnyayay</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>shakeyourbonbon_</t>
+          <t>melissaa_huang</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tori_pierce_</t>
+          <t>natalia_isa_m</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ra.njana492</t>
+          <t>audrey.bediako</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>skylarmullinss</t>
+          <t>addie_k321</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>kaylie.singhal</t>
+          <t>tani_mani</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>melissaa_huang</t>
+          <t>_holdeniscute_</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>samanthaphei</t>
+          <t>willll_bakerr</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mitanshk0608</t>
+          <t>niicoleshou</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>monetgondaa_</t>
+          <t>avamgomez</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>_emilyjmoore</t>
+          <t>ryerhardt</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>michael.yang17</t>
+          <t>alissaaa.re</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>fu.hetian</t>
+          <t>ridhi_p_14</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>katemartyny</t>
+          <t>shreeja_tangutur</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>mzzzipper</t>
+          <t>emma_swartz_</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>patrick_h0</t>
+          <t>londonjacksonn</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ashleyyferguson1</t>
+          <t>julianne_lynns</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>shawn_ladhani</t>
+          <t>ssabrina.xox</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>lucia_fogler</t>
+          <t>alexandra.flug</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>abbymwalsh</t>
+          <t>savannah.overby</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>stephen.ng04</t>
+          <t>carolh2004</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>alisabera_</t>
+          <t>ianmayergoyz</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>d4n1sh14</t>
+          <t>nate.lenard20</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>cameronmottley</t>
+          <t>kt.glaz</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>isht19_</t>
+          <t>dyuu.lee</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>jo_hya</t>
+          <t>arnav3d</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>caliii.nelson</t>
+          <t>ak.gaskin</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>hannahhfrakes</t>
+          <t>anniea_l</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kimberlyegoavil</t>
+          <t>julia.mckechnie</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>bo_johnson_</t>
+          <t>deeya.patell</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>aya.leone</t>
+          <t>laurenopin</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>delinaaogbe</t>
+          <t>alyssa.t.bui.23</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>graham.wiggins</t>
+          <t>joshgreenbaum1</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>brookemozarskyy</t>
+          <t>_miatesoriero</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>cadencleffi_24</t>
+          <t>annamscott</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>anikar_12</t>
+          <t>stellashley</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>carolh2004</t>
+          <t>mouad_tazka</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>prillamangrayson</t>
+          <t>finnsjue</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>_.melissac._18</t>
+          <t>jackiesonnn</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>praggnyayay</t>
+          <t>erin.monnig</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>finnlyn_</t>
+          <t>kenzie.stinson183</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>mayarooneyy</t>
+          <t>rachaelarowland</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>carmen_sewell1</t>
+          <t>michaelfraz05</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>annakutelia</t>
+          <t>bezwot</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>susana.columbieperez</t>
+          <t>chrisdo1an</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>kessler__ke</t>
+          <t>averageutkarsh</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jamjam_ar</t>
+          <t>ayo.a16</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>bentzito</t>
+          <t>sajani_silla</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sajani_silla</t>
+          <t>amika.kapoor</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>julia.mckechnie</t>
+          <t>colecavanaugh_</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>okbelcy</t>
+          <t>_sarah23__</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>thomaslucrezio</t>
+          <t>_kristylau_</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sushan.gumadavalli</t>
+          <t>aahna_patel00</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>cesar_martinez0011</t>
+          <t>grace.blake23</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>andrewpratt05</t>
+          <t>saehee.hee</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>_marika_clark_</t>
+          <t>hillary_estrada25</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>we4bulls</t>
+          <t>finnbennett._</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>julia.kentt</t>
+          <t>gem.morriss</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>vanessablockk</t>
+          <t>adam_hxh</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>leynabidic</t>
+          <t>kate.scheerer</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>reema.gaal</t>
+          <t>yasameenb</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>magenw21</t>
+          <t>nithyagopal05</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>belladimeo</t>
+          <t>lulukayw</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>lilyywheels</t>
+          <t>tsherm_7</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>jolina.dong</t>
+          <t>snigdhajakka</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>angel_mulu</t>
+          <t>kay.marinus</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>julia.shuttle.worth.it</t>
+          <t>pallavi.rustogi</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ssprzz_</t>
+          <t>isha.shah28</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cami.forsyth</t>
+          <t>ame903</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>luci.nguyenn</t>
+          <t>anne.c.krieger</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>aarushbojja</t>
+          <t>_sofiapatel</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>chancet_b</t>
+          <t>simi.chak</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>char.sypark</t>
+          <t>thisissamsacct</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>malyeka_ali</t>
+          <t>maya_murrayy</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>patrick_schmid02</t>
+          <t>jonaslee_17</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>_savannahvaughan</t>
+          <t>jamespilot22</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>aziza.ergasheva_</t>
+          <t>shlokr.72</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>srithaalluri</t>
+          <t>sophia.c.white</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ak.gaskin</t>
+          <t>hannahhfrakes</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>emmav.hartman</t>
+          <t>alisonoleson</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>emilygkiser</t>
+          <t>kaylaanderson7108</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>haarikanandula</t>
+          <t>another_lizard</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>shaquale_05</t>
+          <t>sree_pamulapati</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>brookecorrinhall</t>
+          <t>nituthoota</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>juliewang_0423</t>
+          <t>simona.hagos</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>crystalmcenhimer</t>
+          <t>emmav.hartman</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>lrstocks</t>
+          <t>spatel168</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>nehapolavarapu</t>
+          <t>ashleyyferguson1</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>isabellehilinski_</t>
+          <t>emma_lellouche</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>_danesteele</t>
+          <t>ram.ey_</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>haley__macleod</t>
+          <t>bree.tatel</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>lucyxnguyen</t>
+          <t>pratha.ravani</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>a.afowler</t>
+          <t>lucia_patino_ip</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>huntercooper4444</t>
+          <t>austin.ennor73</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>avaduha</t>
+          <t>evanmgomez</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>abem.sea</t>
+          <t>mariamtgrigorian</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>itsnotzhang</t>
+          <t>katieefrr</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>annamscott</t>
+          <t>rhea_sethii</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>iliana.vass</t>
+          <t>isht19_</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kyliearnottt</t>
+          <t>alexheyman_</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>lolakolawolee</t>
+          <t>harivanshrathi</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>syd.camryn</t>
+          <t>victoriahughes8</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>steph.ahi</t>
+          <t>j_curran101</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sengtonn</t>
+          <t>_arinasokolova</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ucheezenwa23</t>
+          <t>audrey.humes</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>meredith.clay_</t>
+          <t>elinaeth</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>surajvaddi</t>
+          <t>erin.aroneo</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>kendramicklee</t>
+          <t>angel_mulu</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>srishti_vel</t>
+          <t>bentzito</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ash.meen1</t>
+          <t>susana.columbieperez</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>vi.x.ny</t>
+          <t>humzah_syed05</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jessicaedurgin</t>
+          <t>_dhruvsarang</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>simi.chak</t>
+          <t>vi.x.ny</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>_sarah23__</t>
+          <t>niharika.chandna</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>elizatconnolly</t>
+          <t>nehapolavarapu</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>lashgarisharareh</t>
+          <t>emilyvvilliamss</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>_sam__marie</t>
+          <t>srishti_vel</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>alexandra.flug</t>
+          <t>kittrellwill</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ianmayergoyz</t>
+          <t>alexandraworms</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>michelle_.sherman</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>alli_s__</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>jadenklinee</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>esotericket</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>dyuu.lee</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>_miatesoriero</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>juliekassislong</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>julia.bromfman</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>dianazzy17</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>saya.nylin</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>lizawebb_</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>sophie.c_4</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>cfskin67</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>rosedaum</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
